--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,24 +46,24 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -73,70 +73,76 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>special</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -613,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7012987012987013</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C4">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -663,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3648068669527897</v>
+        <v>0.2275132275132275</v>
       </c>
       <c r="C5">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2325581395348837</v>
+        <v>0.2228682170542636</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,69 +737,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>401</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L6">
-        <v>45</v>
-      </c>
-      <c r="M6">
-        <v>45</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.175</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K7">
         <v>0.875</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,21 +787,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,21 +813,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,21 +839,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8035714285714286</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,21 +865,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,21 +891,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7241379310344828</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,21 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7241379310344828</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,21 +969,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6923076923076923</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,21 +995,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6923076923076923</v>
+        <v>0.6625</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,21 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L18">
         <v>29</v>
       </c>
-      <c r="K18">
-        <v>0.64</v>
-      </c>
-      <c r="L18">
-        <v>16</v>
-      </c>
       <c r="M18">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1117,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5868544600938967</v>
+        <v>0.5587467362924282</v>
       </c>
       <c r="L21">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="M21">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1169,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5757575757575758</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5357142857142857</v>
+        <v>0.4911764705882353</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5208333333333334</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L24">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5142857142857142</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L25">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="M25">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4666666666666667</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1299,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4573643410852713</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4239130434782609</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1351,33 +1333,111 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.04250559284116331</v>
+      </c>
+      <c r="L29">
+        <v>38</v>
+      </c>
+      <c r="M29">
+        <v>38</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K29">
-        <v>0.04146341463414634</v>
-      </c>
-      <c r="L29">
-        <v>17</v>
-      </c>
-      <c r="M29">
-        <v>17</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>393</v>
+      <c r="K30">
+        <v>0.03888888888888889</v>
+      </c>
+      <c r="L30">
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <v>36</v>
+      </c>
+      <c r="N30">
+        <v>0.97</v>
+      </c>
+      <c r="O30">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.01495327102803738</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>35</v>
+      </c>
+      <c r="N31">
+        <v>0.91</v>
+      </c>
+      <c r="O31">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.009668063164679342</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>34</v>
+      </c>
+      <c r="N32">
+        <v>0.88</v>
+      </c>
+      <c r="O32">
+        <v>0.12</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3073</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -70,67 +70,73 @@
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>better</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>store</t>
@@ -500,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -611,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.613013698630137</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2275132275132275</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -719,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2228682170542636</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C6">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D6">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,13 +775,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -795,13 +801,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -821,13 +827,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.78125</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -847,13 +853,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.78125</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -873,13 +879,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7586206896551724</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -891,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -899,13 +905,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7583333333333333</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L12">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -917,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -925,13 +931,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7452830188679245</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -943,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -951,13 +957,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7112676056338029</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -969,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -977,13 +983,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7058823529411765</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -995,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1003,13 +1009,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6625</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1029,13 +1035,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.64</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1055,13 +1061,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6170212765957447</v>
+        <v>0.66875</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1081,13 +1087,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5833333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1099,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1107,13 +1113,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.574468085106383</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L20">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1125,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1133,13 +1139,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5587467362924282</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>214</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1151,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>169</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1159,13 +1165,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5396825396825397</v>
+        <v>0.58</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1177,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1185,13 +1191,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4911764705882353</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L23">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="M23">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1203,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1211,13 +1217,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4719101123595505</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1229,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1237,13 +1243,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4305084745762712</v>
+        <v>0.45</v>
       </c>
       <c r="L25">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="M25">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1255,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1263,13 +1269,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3891213389121339</v>
+        <v>0.4474576271186441</v>
       </c>
       <c r="L26">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="M26">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1281,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1292,10 +1298,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1341,13 +1347,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.04250559284116331</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1359,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>856</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1367,25 +1373,25 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.03888888888888889</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>865</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1393,25 +1399,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.01495327102803738</v>
+        <v>0.04809843400447427</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N31">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>2108</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1419,25 +1425,77 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.009668063164679342</v>
+        <v>0.03329633740288569</v>
       </c>
       <c r="L32">
         <v>30</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N32">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>3073</v>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.01214385801027557</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>0.93</v>
+      </c>
+      <c r="O33">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.01030927835051546</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>35</v>
+      </c>
+      <c r="N34">
+        <v>0.91</v>
+      </c>
+      <c r="O34">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>3072</v>
       </c>
     </row>
   </sheetData>
